--- a/controller/Sistemas.xlsx
+++ b/controller/Sistemas.xlsx
@@ -331,13 +331,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A2:XFD32"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="12.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAVA</t>
+          <t>SIA</t>
         </is>
       </c>
     </row>
@@ -376,7 +376,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIA</t>
+          <t>SAVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ahhhhhhh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kfjlkjfçljkfkl</t>
         </is>
       </c>
     </row>

--- a/controller/Sistemas.xlsx
+++ b/controller/Sistemas.xlsx
@@ -331,13 +331,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="12.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -420,6 +420,16 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
